--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -389,6 +389,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -415,7 +416,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1018,7 +1018,7 @@
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
         </is>
       </c>
-      <c r="C1" s="46" t="n">
+      <c r="C1" s="36" t="n">
         <v>44307</v>
       </c>
     </row>
@@ -1188,19 +1188,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1222,204 +1222,204 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="36" t="inlineStr">
+      <c r="A3" s="37" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="41" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="42" t="inlineStr">
         <is>
           <t>VAL: Value added</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="39" t="n"/>
-      <c r="O3" s="39" t="n"/>
-      <c r="P3" s="39" t="n"/>
-      <c r="Q3" s="39" t="n"/>
-      <c r="R3" s="39" t="n"/>
-      <c r="S3" s="39" t="n"/>
-      <c r="T3" s="39" t="n"/>
-      <c r="U3" s="39" t="n"/>
-      <c r="V3" s="39" t="n"/>
-      <c r="W3" s="39" t="n"/>
-      <c r="X3" s="39" t="n"/>
-      <c r="Y3" s="39" t="n"/>
-      <c r="Z3" s="39" t="n"/>
-      <c r="AA3" s="39" t="n"/>
-      <c r="AB3" s="39" t="n"/>
-      <c r="AC3" s="39" t="n"/>
-      <c r="AD3" s="39" t="n"/>
-      <c r="AE3" s="39" t="n"/>
-      <c r="AF3" s="39" t="n"/>
-      <c r="AG3" s="39" t="n"/>
-      <c r="AH3" s="39" t="n"/>
-      <c r="AI3" s="39" t="n"/>
-      <c r="AJ3" s="39" t="n"/>
-      <c r="AK3" s="39" t="n"/>
-      <c r="AL3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="40" t="n"/>
+      <c r="O3" s="40" t="n"/>
+      <c r="P3" s="40" t="n"/>
+      <c r="Q3" s="40" t="n"/>
+      <c r="R3" s="40" t="n"/>
+      <c r="S3" s="40" t="n"/>
+      <c r="T3" s="40" t="n"/>
+      <c r="U3" s="40" t="n"/>
+      <c r="V3" s="40" t="n"/>
+      <c r="W3" s="40" t="n"/>
+      <c r="X3" s="40" t="n"/>
+      <c r="Y3" s="40" t="n"/>
+      <c r="Z3" s="40" t="n"/>
+      <c r="AA3" s="40" t="n"/>
+      <c r="AB3" s="40" t="n"/>
+      <c r="AC3" s="40" t="n"/>
+      <c r="AD3" s="40" t="n"/>
+      <c r="AE3" s="40" t="n"/>
+      <c r="AF3" s="40" t="n"/>
+      <c r="AG3" s="40" t="n"/>
+      <c r="AH3" s="40" t="n"/>
+      <c r="AI3" s="40" t="n"/>
+      <c r="AJ3" s="40" t="n"/>
+      <c r="AK3" s="40" t="n"/>
+      <c r="AL3" s="38" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="37" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="38" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="39" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="39" t="n"/>
-      <c r="E4" s="39" t="n"/>
-      <c r="F4" s="39" t="n"/>
-      <c r="G4" s="39" t="n"/>
-      <c r="H4" s="39" t="n"/>
-      <c r="I4" s="39" t="n"/>
-      <c r="J4" s="39" t="n"/>
-      <c r="K4" s="39" t="n"/>
-      <c r="L4" s="39" t="n"/>
-      <c r="M4" s="39" t="n"/>
-      <c r="N4" s="39" t="n"/>
-      <c r="O4" s="39" t="n"/>
-      <c r="P4" s="39" t="n"/>
-      <c r="Q4" s="39" t="n"/>
-      <c r="R4" s="39" t="n"/>
-      <c r="S4" s="39" t="n"/>
-      <c r="T4" s="39" t="n"/>
-      <c r="U4" s="39" t="n"/>
-      <c r="V4" s="39" t="n"/>
-      <c r="W4" s="39" t="n"/>
-      <c r="X4" s="39" t="n"/>
-      <c r="Y4" s="39" t="n"/>
-      <c r="Z4" s="39" t="n"/>
-      <c r="AA4" s="39" t="n"/>
-      <c r="AB4" s="39" t="n"/>
-      <c r="AC4" s="39" t="n"/>
-      <c r="AD4" s="39" t="n"/>
-      <c r="AE4" s="39" t="n"/>
-      <c r="AF4" s="39" t="n"/>
-      <c r="AG4" s="39" t="n"/>
-      <c r="AH4" s="39" t="n"/>
-      <c r="AI4" s="39" t="n"/>
-      <c r="AJ4" s="39" t="n"/>
-      <c r="AK4" s="39" t="n"/>
-      <c r="AL4" s="37" t="n"/>
+      <c r="D4" s="40" t="n"/>
+      <c r="E4" s="40" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
+      <c r="I4" s="40" t="n"/>
+      <c r="J4" s="40" t="n"/>
+      <c r="K4" s="40" t="n"/>
+      <c r="L4" s="40" t="n"/>
+      <c r="M4" s="40" t="n"/>
+      <c r="N4" s="40" t="n"/>
+      <c r="O4" s="40" t="n"/>
+      <c r="P4" s="40" t="n"/>
+      <c r="Q4" s="40" t="n"/>
+      <c r="R4" s="40" t="n"/>
+      <c r="S4" s="40" t="n"/>
+      <c r="T4" s="40" t="n"/>
+      <c r="U4" s="40" t="n"/>
+      <c r="V4" s="40" t="n"/>
+      <c r="W4" s="40" t="n"/>
+      <c r="X4" s="40" t="n"/>
+      <c r="Y4" s="40" t="n"/>
+      <c r="Z4" s="40" t="n"/>
+      <c r="AA4" s="40" t="n"/>
+      <c r="AB4" s="40" t="n"/>
+      <c r="AC4" s="40" t="n"/>
+      <c r="AD4" s="40" t="n"/>
+      <c r="AE4" s="40" t="n"/>
+      <c r="AF4" s="40" t="n"/>
+      <c r="AG4" s="40" t="n"/>
+      <c r="AH4" s="40" t="n"/>
+      <c r="AI4" s="40" t="n"/>
+      <c r="AJ4" s="40" t="n"/>
+      <c r="AK4" s="40" t="n"/>
+      <c r="AL4" s="38" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="37" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="B5" s="38" t="n"/>
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="39" t="n"/>
-      <c r="E5" s="39" t="n"/>
-      <c r="F5" s="39" t="n"/>
-      <c r="G5" s="39" t="n"/>
-      <c r="H5" s="39" t="n"/>
-      <c r="I5" s="39" t="n"/>
-      <c r="J5" s="39" t="n"/>
-      <c r="K5" s="39" t="n"/>
-      <c r="L5" s="39" t="n"/>
-      <c r="M5" s="39" t="n"/>
-      <c r="N5" s="39" t="n"/>
-      <c r="O5" s="39" t="n"/>
-      <c r="P5" s="39" t="n"/>
-      <c r="Q5" s="39" t="n"/>
-      <c r="R5" s="39" t="n"/>
-      <c r="S5" s="39" t="n"/>
-      <c r="T5" s="39" t="n"/>
-      <c r="U5" s="39" t="n"/>
-      <c r="V5" s="39" t="n"/>
-      <c r="W5" s="39" t="n"/>
-      <c r="X5" s="39" t="n"/>
-      <c r="Y5" s="39" t="n"/>
-      <c r="Z5" s="39" t="n"/>
-      <c r="AA5" s="39" t="n"/>
-      <c r="AB5" s="39" t="n"/>
-      <c r="AC5" s="39" t="n"/>
-      <c r="AD5" s="39" t="n"/>
-      <c r="AE5" s="39" t="n"/>
-      <c r="AF5" s="39" t="n"/>
-      <c r="AG5" s="39" t="n"/>
-      <c r="AH5" s="39" t="n"/>
-      <c r="AI5" s="39" t="n"/>
-      <c r="AJ5" s="39" t="n"/>
-      <c r="AK5" s="39" t="n"/>
-      <c r="AL5" s="37" t="n"/>
+      <c r="D5" s="40" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
+      <c r="I5" s="40" t="n"/>
+      <c r="J5" s="40" t="n"/>
+      <c r="K5" s="40" t="n"/>
+      <c r="L5" s="40" t="n"/>
+      <c r="M5" s="40" t="n"/>
+      <c r="N5" s="40" t="n"/>
+      <c r="O5" s="40" t="n"/>
+      <c r="P5" s="40" t="n"/>
+      <c r="Q5" s="40" t="n"/>
+      <c r="R5" s="40" t="n"/>
+      <c r="S5" s="40" t="n"/>
+      <c r="T5" s="40" t="n"/>
+      <c r="U5" s="40" t="n"/>
+      <c r="V5" s="40" t="n"/>
+      <c r="W5" s="40" t="n"/>
+      <c r="X5" s="40" t="n"/>
+      <c r="Y5" s="40" t="n"/>
+      <c r="Z5" s="40" t="n"/>
+      <c r="AA5" s="40" t="n"/>
+      <c r="AB5" s="40" t="n"/>
+      <c r="AC5" s="40" t="n"/>
+      <c r="AD5" s="40" t="n"/>
+      <c r="AE5" s="40" t="n"/>
+      <c r="AF5" s="40" t="n"/>
+      <c r="AG5" s="40" t="n"/>
+      <c r="AH5" s="40" t="n"/>
+      <c r="AI5" s="40" t="n"/>
+      <c r="AJ5" s="40" t="n"/>
+      <c r="AK5" s="40" t="n"/>
+      <c r="AL5" s="38" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="36" t="inlineStr">
+      <c r="A6" s="37" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="37" t="n"/>
-      <c r="C6" s="38" t="inlineStr">
+      <c r="B6" s="38" t="n"/>
+      <c r="C6" s="39" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="39" t="n"/>
-      <c r="E6" s="39" t="n"/>
-      <c r="F6" s="39" t="n"/>
-      <c r="G6" s="39" t="n"/>
-      <c r="H6" s="39" t="n"/>
-      <c r="I6" s="39" t="n"/>
-      <c r="J6" s="39" t="n"/>
-      <c r="K6" s="39" t="n"/>
-      <c r="L6" s="39" t="n"/>
-      <c r="M6" s="39" t="n"/>
-      <c r="N6" s="39" t="n"/>
-      <c r="O6" s="39" t="n"/>
-      <c r="P6" s="39" t="n"/>
-      <c r="Q6" s="39" t="n"/>
-      <c r="R6" s="39" t="n"/>
-      <c r="S6" s="39" t="n"/>
-      <c r="T6" s="39" t="n"/>
-      <c r="U6" s="39" t="n"/>
-      <c r="V6" s="39" t="n"/>
-      <c r="W6" s="39" t="n"/>
-      <c r="X6" s="39" t="n"/>
-      <c r="Y6" s="39" t="n"/>
-      <c r="Z6" s="39" t="n"/>
-      <c r="AA6" s="39" t="n"/>
-      <c r="AB6" s="39" t="n"/>
-      <c r="AC6" s="39" t="n"/>
-      <c r="AD6" s="39" t="n"/>
-      <c r="AE6" s="39" t="n"/>
-      <c r="AF6" s="39" t="n"/>
-      <c r="AG6" s="39" t="n"/>
-      <c r="AH6" s="39" t="n"/>
-      <c r="AI6" s="39" t="n"/>
-      <c r="AJ6" s="39" t="n"/>
-      <c r="AK6" s="39" t="n"/>
-      <c r="AL6" s="37" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
+      <c r="I6" s="40" t="n"/>
+      <c r="J6" s="40" t="n"/>
+      <c r="K6" s="40" t="n"/>
+      <c r="L6" s="40" t="n"/>
+      <c r="M6" s="40" t="n"/>
+      <c r="N6" s="40" t="n"/>
+      <c r="O6" s="40" t="n"/>
+      <c r="P6" s="40" t="n"/>
+      <c r="Q6" s="40" t="n"/>
+      <c r="R6" s="40" t="n"/>
+      <c r="S6" s="40" t="n"/>
+      <c r="T6" s="40" t="n"/>
+      <c r="U6" s="40" t="n"/>
+      <c r="V6" s="40" t="n"/>
+      <c r="W6" s="40" t="n"/>
+      <c r="X6" s="40" t="n"/>
+      <c r="Y6" s="40" t="n"/>
+      <c r="Z6" s="40" t="n"/>
+      <c r="AA6" s="40" t="n"/>
+      <c r="AB6" s="40" t="n"/>
+      <c r="AC6" s="40" t="n"/>
+      <c r="AD6" s="40" t="n"/>
+      <c r="AE6" s="40" t="n"/>
+      <c r="AF6" s="40" t="n"/>
+      <c r="AG6" s="40" t="n"/>
+      <c r="AH6" s="40" t="n"/>
+      <c r="AI6" s="40" t="n"/>
+      <c r="AJ6" s="40" t="n"/>
+      <c r="AK6" s="40" t="n"/>
+      <c r="AL6" s="38" t="n"/>
     </row>
     <row r="7" ht="120" customHeight="1">
-      <c r="A7" s="40" t="inlineStr">
+      <c r="A7" s="41" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="37" t="n"/>
+      <c r="B7" s="38" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -2034,11 +2034,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1640625" customWidth="1" min="3" max="14"/>
+    <col width="14.1796875" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2060,80 +2060,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="inlineStr">
+      <c r="A3" s="44" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="44" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="45" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="38" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="42" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="45" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="46" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="37" t="n"/>
-      <c r="E4" s="45" t="inlineStr">
+      <c r="D4" s="38" t="n"/>
+      <c r="E4" s="46" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="37" t="n"/>
-      <c r="G4" s="45" t="inlineStr">
+      <c r="F4" s="38" t="n"/>
+      <c r="G4" s="46" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="37" t="n"/>
-      <c r="I4" s="45" t="inlineStr">
+      <c r="H4" s="38" t="n"/>
+      <c r="I4" s="46" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="37" t="n"/>
-      <c r="K4" s="45" t="inlineStr">
+      <c r="J4" s="38" t="n"/>
+      <c r="K4" s="46" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="37" t="n"/>
-      <c r="M4" s="45" t="inlineStr">
+      <c r="L4" s="38" t="n"/>
+      <c r="M4" s="46" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="37" t="n"/>
+      <c r="N4" s="38" t="n"/>
     </row>
     <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="42" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
+      <c r="B5" s="38" t="n"/>
       <c r="C5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -3442,10 +3442,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="24.83203125" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="39"/>
+    <col width="24.81640625" customWidth="1" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3672,100 +3672,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5337240000</v>
+        <v>581238932.5188458</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>0</v>
+        <v>548043.4733878513</v>
       </c>
       <c r="E2" t="n">
-        <v>195605000</v>
+        <v>86115306.10514772</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11460099.35242207</v>
       </c>
       <c r="G2" t="n">
-        <v>3111321000</v>
+        <v>1568271144.888999</v>
       </c>
       <c r="H2" t="n">
-        <v>271309000</v>
+        <v>99722463.76154406</v>
       </c>
       <c r="I2" t="n">
-        <v>901101000</v>
+        <v>502358391.942281</v>
       </c>
       <c r="J2" t="n">
-        <v>1141973000</v>
+        <v>649763596.2878846</v>
       </c>
       <c r="K2" t="n">
         <v>623859000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>485385195.3036233</v>
+        <v>262881884.0675183</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>323011804.6963767</v>
+        <v>163719297.3766282</v>
       </c>
       <c r="N2" t="n">
-        <v>583970000</v>
+        <v>400675988.6335334</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>267656455.0898204</v>
+        <v>96466745.31369883</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>503009544.9101797</v>
+        <v>229160569.45801</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>48440040.42508856</v>
+        <v>31971421.41377872</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>426945959.5749114</v>
+        <v>160694334.0754726</v>
       </c>
       <c r="S2" t="n">
-        <v>1571774000</v>
+        <v>980383949.506073</v>
       </c>
       <c r="T2" t="n">
-        <v>2390499000</v>
+        <v>1233161420.707971</v>
       </c>
       <c r="U2" t="n">
-        <v>570722000</v>
+        <v>195977683.5241107</v>
       </c>
       <c r="V2" t="n">
-        <v>1405596000</v>
+        <v>812076914.3893303</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>153401879.7602173</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>5154898389.885787</v>
       </c>
       <c r="Y2" t="n">
-        <v>1177097000</v>
+        <v>567366258.5237905</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>696782267.6027255</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>40545163.94796614</v>
+        <v>2225163.741482552</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>62510568.44930828</v>
+        <v>926088134.21433</v>
       </c>
       <c r="AC2" t="n">
-        <v>18443312000</v>
+        <v>10538319074.57704</v>
       </c>
       <c r="AD2" t="n">
-        <v>41390490000</v>
+        <v>7180535850.311395</v>
       </c>
       <c r="AE2" t="n">
         <v>9366281000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10045025000</v>
+        <v>5358439221.262616</v>
       </c>
       <c r="AG2" t="n">
-        <v>20789374000</v>
+        <v>16483085675.18294</v>
       </c>
       <c r="AH2" t="n">
         <v>3421797000</v>
@@ -3777,25 +3777,25 @@
         <v>12380035000</v>
       </c>
       <c r="AK2" t="n">
-        <v>4052019000</v>
+        <v>2131185012.441406</v>
       </c>
       <c r="AL2" t="n">
-        <v>51587808000</v>
+        <v>25135776495.38865</v>
       </c>
       <c r="AM2" t="n">
-        <v>60430626000</v>
+        <v>165837245000</v>
       </c>
       <c r="AN2" t="n">
-        <v>2538669000</v>
+        <v>1258087414.149425</v>
       </c>
       <c r="AO2" t="n">
-        <v>29700866000</v>
+        <v>18545567780.29649</v>
       </c>
       <c r="AP2" t="n">
-        <v>2402613000</v>
+        <v>1622199806.03009</v>
       </c>
       <c r="AQ2" t="n">
-        <v>508680000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3672,100 +3672,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>581238932.5188458</v>
+        <v>412366687.0508035</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>548043.4733878513</v>
+        <v>388815.7844165676</v>
       </c>
       <c r="E2" t="n">
-        <v>86115306.10514772</v>
+        <v>61095500.48386376</v>
       </c>
       <c r="F2" t="n">
-        <v>11460099.35242207</v>
+        <v>8130500.107334298</v>
       </c>
       <c r="G2" t="n">
-        <v>1568271144.888999</v>
+        <v>1112628112.526304</v>
       </c>
       <c r="H2" t="n">
-        <v>99722463.76154406</v>
+        <v>70749255.95173962</v>
       </c>
       <c r="I2" t="n">
-        <v>502358391.942281</v>
+        <v>356403974.6953647</v>
       </c>
       <c r="J2" t="n">
-        <v>649763596.2878846</v>
+        <v>460982302.7619768</v>
       </c>
       <c r="K2" t="n">
         <v>623859000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>262881884.0675183</v>
+        <v>186504594.8467692</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>163719297.3766282</v>
+        <v>116152550.1619706</v>
       </c>
       <c r="N2" t="n">
-        <v>400675988.6335334</v>
+        <v>284264216.9505023</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>96466745.31369883</v>
+        <v>68439448.82218263</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>229160569.45801</v>
+        <v>162580617.9578502</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>31971421.41377872</v>
+        <v>22682494.91060646</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>160694334.0754726</v>
+        <v>114006454.9416417</v>
       </c>
       <c r="S2" t="n">
-        <v>980383949.506073</v>
+        <v>695544738.4496969</v>
       </c>
       <c r="T2" t="n">
-        <v>1233161420.707971</v>
+        <v>874880640.6558464</v>
       </c>
       <c r="U2" t="n">
-        <v>195977683.5241107</v>
+        <v>139038635.5237966</v>
       </c>
       <c r="V2" t="n">
-        <v>812076914.3893303</v>
+        <v>576137364.6565036</v>
       </c>
       <c r="W2" t="n">
-        <v>153401879.7602173</v>
+        <v>108832738.8359097</v>
       </c>
       <c r="X2" t="n">
-        <v>5154898389.885787</v>
+        <v>3657202317.65755</v>
       </c>
       <c r="Y2" t="n">
-        <v>567366258.5237905</v>
+        <v>402524557.9437839</v>
       </c>
       <c r="Z2" s="32" t="n">
-        <v>696782267.6027255</v>
+        <v>678158465.0321543</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>2225163.741482552</v>
+        <v>64178721.66398713</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>926088134.21433</v>
+        <v>901335376.607717</v>
       </c>
       <c r="AC2" t="n">
-        <v>10538319074.57704</v>
+        <v>7476532421.934285</v>
       </c>
       <c r="AD2" t="n">
-        <v>7180535850.311395</v>
+        <v>5094314255.603358</v>
       </c>
       <c r="AE2" t="n">
         <v>9366281000</v>
       </c>
       <c r="AF2" t="n">
-        <v>5358439221.262616</v>
+        <v>3801606715.949827</v>
       </c>
       <c r="AG2" t="n">
-        <v>16483085675.18294</v>
+        <v>11694115882.42046</v>
       </c>
       <c r="AH2" t="n">
         <v>3421797000</v>
@@ -3777,22 +3777,22 @@
         <v>12380035000</v>
       </c>
       <c r="AK2" t="n">
-        <v>2131185012.441406</v>
+        <v>1511993870.170239</v>
       </c>
       <c r="AL2" t="n">
-        <v>25135776495.38865</v>
+        <v>17832867517.89772</v>
       </c>
       <c r="AM2" t="n">
         <v>165837245000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1258087414.149425</v>
+        <v>2538669000</v>
       </c>
       <c r="AO2" t="n">
-        <v>18545567780.29649</v>
+        <v>29700866000</v>
       </c>
       <c r="AP2" t="n">
-        <v>1622199806.03009</v>
+        <v>1150888425.261147</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
